--- a/09-22-24 to 09-28-24 Madison Schedule.xlsx
+++ b/09-22-24 to 09-28-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>6:00 AM ST START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1395,10 +1395,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Keshawn</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>meet Sarah 4:30 @ Hwy N PnR, Driver 1/2</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1427,10 +1431,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Keshawn</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1462,12 +1470,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>meet Sarah 4:30 @ Hwy N PnR, Driver 1/2</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1503,12 +1512,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van
+Trainer</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1538,13 +1549,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1567,14 +1577,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van
-Trainer</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1604,14 +1612,10 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1628,12 +1632,13 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store, 
+1st Day, work w/ Michael</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1656,16 +1661,8 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1700,13 +1697,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store, 
-1st Day, work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1764,21 +1760,9 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1800,7 +1784,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1849,7 +1837,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1875,7 +1863,11 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -1906,7 +1898,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>BUTERA MARKET #589, PALATINE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1926,7 +1918,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1953,7 +1945,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #589, PALATINE</t>
+          <t>2070 N RAND RD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1973,7 +1965,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S FOODS #242, MARENGO</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2004,7 +1996,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2070 N RAND RD</t>
+          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2028,7 +2020,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #242, MARENGO</t>
+          <t>202 LINDOW LANE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2059,7 +2051,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/vpupTB9xixFKJbGe7</t>
+          <t xml:space="preserve">*IL Meet is 4:45 am at IL Office   </t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2079,7 +2071,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>202 LINDOW LANE</t>
+          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2109,11 +2101,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 4:45 am at IL Office   </t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -2143,7 +2131,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2159,9 +2147,23 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima,
+Equip</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2188,11 +2190,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2208,21 +2206,15 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima,
-Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
@@ -2249,9 +2241,21 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2270,15 +2274,20 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -2306,19 +2315,15 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
@@ -2337,20 +2342,15 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2375,15 +2375,20 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2402,15 +2407,20 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2440,28 +2450,22 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Driver,
-Prius, 
+          <t>@ Store,
 Equip</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2480,20 +2484,15 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2525,12 +2524,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2552,12 +2551,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2597,12 +2596,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2624,12 +2623,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2664,15 +2663,20 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2687,12 +2691,12 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2715,20 +2719,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2753,16 +2752,8 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2781,16 +2772,8 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
@@ -2831,7 +2814,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2864,7 +2847,11 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -2878,13 +2865,21 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
@@ -2913,7 +2908,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2929,7 +2924,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -2941,7 +2936,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2958,7 +2953,8 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -2972,7 +2968,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2981,26 +2977,14 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3031,7 +3015,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>KELLEY #72, FIRST AVE MOBIL, ROCK FALLS</t>
+          <t>1308 1ST AVENUE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3047,7 +3031,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
+          <t>550 SOUTH ROCK DR</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3078,7 +3062,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1308 1ST AVENUE</t>
+          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3088,13 +3072,17 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>550 SOUTH ROCK DR</t>
+          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3125,7 +3113,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pvTvLw6CGmx</t>
+          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office   </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3137,17 +3125,13 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3174,11 +3158,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:15 am at IL Office   </t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3188,14 +3168,26 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3204,12 +3196,13 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+4th Day, work w/ Carlie</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
@@ -3220,9 +3213,21 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -3231,26 +3236,22 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>KELLEY #74, OLD SAUK MOBIL, MADISON</t>
+          <t>633 JUNCTION CT</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3277,17 +3278,18 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3298,19 +3300,19 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>633 JUNCTION CT</t>
+          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3322,7 +3324,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3340,20 +3342,15 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -3362,19 +3359,19 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZNAyiE7fr852</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3386,13 +3383,12 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
@@ -3405,15 +3401,20 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3422,26 +3423,43 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3452,18 +3470,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3472,28 +3489,20 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3506,38 +3515,39 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3563,31 +3573,22 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3611,17 +3612,17 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
@@ -3650,22 +3651,26 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Driver</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3689,24 +3694,24 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store, Driver</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3732,26 +3737,18 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3773,16 +3770,8 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3836,7 +3825,11 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3865,7 +3858,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3896,7 +3889,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -3927,7 +3920,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>KELLEY #22, N MAIN MOBIL, ROCKFORD</t>
+          <t>3338 N MAIN ST</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -3958,7 +3951,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>3338 N MAIN ST</t>
+          <t>https://goo.gl/maps/PPgMB73RP522</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -3987,11 +3980,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PPgMB73RP522</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4017,9 +4006,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4046,19 +4047,15 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4085,12 +4082,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4120,12 +4117,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4155,12 +4152,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4190,15 +4187,19 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -4225,19 +4226,15 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -4249,41 +4246,6 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
